--- a/find_company/find_company/companies.xlsx
+++ b/find_company/find_company/companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,395 +453,4092 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ad_LVIP_1611277_100040642615000020</t>
+          <t>ad_RS1_3504071_100040714000000020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hi-Tech Automotive Services</t>
+          <t>Corby Kawasaki Centre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.hitechautoservices.co.uk</t>
+          <t>http://www.corbykawasaki.co.uk/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ad_FLE_7740347_-</t>
+          <t>ad_T2_4397668_100008174395000010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mikey's Garage Ltd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>The Wheel Deal Ltd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>http://www.thewheeldealltd.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ad_FLE_8852306_-</t>
+          <t>ad_T1_7401265_100040381925000020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corby Garage</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>J &amp; S Autos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://www.jandsautos-northampton.co.uk/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ad_FLE_9483513_-</t>
+          <t>ad_LVIP_7326628_100040429077000020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JB's Garage</t>
+          <t>Ian's Autos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.jbsgarage.co.uk</t>
+          <t>http://www.iansautosbrackley.co.uk</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ad_FLE_10147935_-</t>
+          <t>ad_T1_3430407_100008650737000010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hiq Fleet Service</t>
+          <t>The Garage of Corby</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.hiqfleet.co.uk/</t>
+          <t>http://www.thegarageofcorby.co.uk</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ad_FLE_8536826_-</t>
+          <t>ad_T1_1435798_100040401288000090</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N K Autos Ltd</t>
+          <t>Brooklands</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.nkautoscorby.co.uk/</t>
+          <t>http://www.brooklandsgarage.co.uk/our-services/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ad_FLE_8175382_-</t>
+          <t>ad_T2_901455704_100040418693000060</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M &amp; A M O T &amp; Service Centre</t>
+          <t>F.J Morris Contracting Ltd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.matyrescorby.co.uk?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+          <t>http://www.fjmorris.co.uk/fleet-services.aspx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ad_FLE_1519621_-</t>
+          <t>ad_LVIP_1611277_100040642615000020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oakley Road Garage</t>
+          <t>Hi-Tech Automotive Services</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.storefield.co.uk</t>
+          <t>http://www.hitechautoservices.co.uk</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ad_FLE_5075758_-</t>
+          <t>ad_T2_4201440_100040384899000020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chapford Small Build</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Ace Gearboxes Ltd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://www.acegearboxes.co.uk/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ad_BOB1_901736384_100040856225000020</t>
+          <t>ad_T1_901306659_100040423933000020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TF Bricklaying</t>
+          <t>Higham Tyre &amp; MOT Centre</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TFbricklaying-102572815509341/?ref=page_internal</t>
+          <t>http://highamtyresandmot.co.uk</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ad_FLE_7809006_-</t>
+          <t>ad_T2_4573189_100040436318004540</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Brunel Motors</t>
+          <t>Mr Clutch Autocentres</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://www.brunelmotors.co.uk</t>
+          <t>https://www.mrclutch.com/branch/northampton</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ad_FLE_9847625_-</t>
+          <t>ad_BOB5_9164105_100040704193000020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RMC Automotive</t>
+          <t>Reflections Garage Doors</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/rmcautomotive1</t>
+          <t>https://www.reflectionsgaragedoors.co.uk/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ad_FLE_8849706_-</t>
+          <t>ad_LS5_4618184_100040524921000020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JJC Construction</t>
+          <t>AMS Autocare</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://jjc-builders.co.uk/</t>
+          <t>http://www.amsautocare.co.uk</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ad_FLE_5348181_-</t>
+          <t>ad_LS5_8442646_100040416576000020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Taxi Pit Stop</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Fred Harris Garage Doors</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://fredharrisgaragedoors.co.uk/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ad_FLE_8614524_-</t>
+          <t>ad_LS2_3897419_100040526328000020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Corby Handyman Services</t>
+          <t>Purkiss Garage Door Repairs</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://www.agjpropertyservices.co.uk</t>
+          <t>https://www.purkissgaragedoorrepairs.co.uk/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ad_FLE_10000496_-</t>
+          <t>ad_LS2_1581508_100040453941000100</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AKM Services</t>
+          <t>Arron Door Services Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.pvcbannersprinting.co.uk/</t>
+          <t>http://www.arrondoorservicesltd.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ad_FLE_9734015_-</t>
+          <t>ad_BOB4_9911336_100040736827000040</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aba Living Space</t>
+          <t>Automotive Solutions Corby Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://www.abalivingspace.com</t>
+          <t>https://www.automotivesolutionscorby.com/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ad_FLE_1480309_-</t>
+          <t>ad_LVIP2_7137933_100040626266000020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Phils Autos Ltd</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>C G S Auto Centre Ltd</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>http://www.cgsautocentre.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ad_FLE_9160931_-</t>
+          <t>ad_BOB4_1367694_100040698102000020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Auto Direct Services Ltd</t>
+          <t>Town Garage Brackley Ltd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.autodirectservicescorby.co.uk/</t>
+          <t>http://towngarage-brackley.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ad_FLE_4389952_-</t>
+          <t>ad_T1_7409251_100008119047000010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S R M O T &amp; Service Centre Ltd</t>
+          <t>Northampton Welding</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://www.srmotandservicecentre.co.uk</t>
+          <t>http://www.northamptonwelding.co.uk</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ad_FLE_901589371_-</t>
+          <t>ad_LVIP_6795383_100040665851000150</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>John Derwent Building</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>All County Maintenance Ltd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.allcountymaintenance.co.uk/</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ad_FLE_7653048_-</t>
+          <t>ad_BOB1_9940532_100040859631000020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hillside Garage</t>
+          <t>Nailed it Property Services Ltd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>http://www.facebook.com/carspex.garage</t>
+          <t>http://www.facebook.com/naileditps/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ad_FLE_8312681_-</t>
+          <t>ad_BOB5_8378320_100040774199000020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Central Autopoint</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>http://www.motcorby.co.uk/</t>
-        </is>
-      </c>
+          <t>Neil O'Dell Property Renovations</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ad_FLE_7806895_-</t>
+          <t>ad_BOB1_7527192_100040862211000050</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24HR Rapid Recovery Service</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Jessels Autos</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.jesselsautos.co.uk</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ad_FLE_9323473_-</t>
+          <t>ad_LVIP_9571502_100040630264000050</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C &amp; I Automotive</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>S Hamilton Building</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/SimonHamiltonBuilding/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ad_BOB1_9902984_100040858069000020</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dirty Windows</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.dirty-windows.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ad_BOB1_10200659_100040817470000020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Wellingborough Window &amp; Gutter Cleaning</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>http://www.wellingboroughwindowandguttercleaning.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ad_BOB1_10203242_100040818766000040</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JAM &amp; Co</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.jamandco.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ad_LVIP_9407622_100040632610000020</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Craig Stone Service Counts</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>http://www.craigstoneservicecounts.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ad_T2_7809744_100008498597000020</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A Beck &amp; Son Landscapes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>http://www.becklandscapes.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ad_LVIP_3030392_100040394612000040</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dan's Motor Repairs &amp; Son</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>http://www.dans-motorrepairs.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ad_BOB1_901717246_100040735587000120</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A S Roofing</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.asroofingcontractors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ad_LS5_9177748_100040648650000020</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Adam Clifton Plastering Services</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>http://www.adamcliftonplastering.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ad_LS2_901246470_100040389632000050</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hassett Fencing Ltd</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>http://www.hassettfencingltd.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ad_LD_7805351_100040816813000050</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>D L J Carpentry Services</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/dljcarpentryservices.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ad_BOB1_10308594_100040868410000020</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Revo Performance Centre</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.onlyrevo.com/blog/rpc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ad_LS5_901617729_100040505984000260</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VSN Ltd T/A Bodymek</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>http://www.bodymek-northampton.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ad_LP_7127972_100040798081000020</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Shaun's Handyman Services</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>http://www.shaunshandyman.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ad_BOB1_1544415_100040873190000100</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>N A P S</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>http://www.northantsautoparts.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ad_BOB1_901738558_100040887425000020</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D&amp;a Moto Ltd</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://damotoltd.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ad_BOB1_901739195_100040901021000020</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Deal Construction (Northants) Ltd</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.dealconstructions.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ad_BOB1_901736384_100040856225000020</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TF Bricklaying</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/TFbricklaying-102572815509341/?ref=page_internal</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ad_LP_1581945_100040537728000020</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F E M Motors</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>http://www.femmotors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ad_LP_8255621_100040854731000050</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UK Asbestos</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>http://www.asbestosremovalsoxford.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ad_LVIP_8957508_100040505986000020</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>D&amp;M Motors</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>http://www.dmmotorsspringlane.co.uk/services</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ad_T2_8882600_100040447262000070</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TNJ Build</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/tnj-build-104949284252006</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ad_LP_7126723_100040688592000050</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Freeland Autos</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>http://www.vwandaudispecialist.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ad_FLE_901268815_-</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fernie Garage Doors</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ad_LP_1582513_100040538013000020</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>G Hamson &amp; Son Ltd</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ad_T2_1609409_100007531987000030</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Moulton Autocare</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>http://www.moultonautocare.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ad_LP_901565182_100040529742006470</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>National Tyres and Autocare</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.national.co.uk/branch/435/wellingborough/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ad_LP_901562320_100040548865002150</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>National Tyres and Autocare</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.national.co.uk/branch/658/northampton/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ad_LP_901564437_100040529742001790</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>National Tyres and Autocare</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.national.co.uk/branch/495/corby/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ad_T2_901302106_100007204244000050</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tim Howard Smith Ltd</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>http://www.timhoward-smith.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ad_BOB1_901723737_100040772540000020</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Unit 9 Tyres</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>http://www.woodfordhalsetyres.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ad_LP_9210440_100040682188000050</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>P H Magovern</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>http://www.ratedpeople.com/profile/p-h-magovern/index?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ad_LD_1490151_100040586614000020</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Woodford Halse Garage Ltd</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>http://www.woodfordhalsegarage.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ad_BOB1_901738977_100040895866000040</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Lahman Auto Service</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/lahman.auto</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ad_T2_901583674_100007204244000020</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tim Howard Smith Ltd</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>http://www.timhoward-smith.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ad_T2_7028239_100007978575000030</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>M J Parratt &amp; Son Ltd</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>http://www.mjparrattandson.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ad_LVIP_1566870_100040384500000020</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Power Builders</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>http://www.power-builders.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ad_LP_1300760_100040800699000020</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Moreton Pinkney Garage</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>http://www.moretonpinkneygarage.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ad_LVIP2_8281118_100040547830000080</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Higham Tyre &amp; M O T Centre</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>http://highamtyresandmot.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ad_LS5_3778331_100040505984000230</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bodymek</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>http://www.bodymek-northampton.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ad_LP_7458313_100040549822000020</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Mr Fixit Building Services</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>http://www.mrfixitbuildingservices.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ad_T2_7266301_100007979127000010</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>M.L Quality Plastering</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>http://mlqualityplastering.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ad_LD_7027043_100040550903000020</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Steven Parkin</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>http://www.stevenparkinbuilders.co.uk/block-paving</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ad_FLE_8084671_-</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1st Stop Door Shop Ltd</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>http://www.purkissgaragedoorrepairs.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ad_FLE_3833342_-</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Complete Autocare Ltd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>http://www.complete-autocare.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ad_FLE_7770229_-</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>The Garage</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>http://www.weedongarage.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ad_FLE_8566629_-</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Guardian Garage Doors</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>http://www.guardiangaragedoors.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell&amp;utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ad_FLE_8745348_-</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Northants Garage Doors Ltd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.northantsgaragedoors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ad_FLE_8175382_-</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>M &amp; A M O T &amp; Service Centre</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.matyrescorby.co.uk?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ad_FLE_1456899_-</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>I G Nichol</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>http://www.ignichol.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ad_FLE_8726025_-</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DM Property Services</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>http://www.dm-property-services.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ad_FLE_3612010_-</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R &amp; W Autos</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>http://www.robertsautos.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ad_FLE_7138688_-</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A &amp; S Auto Sparks</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>http://www.aandsautosparks.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ad_FLE_7653048_-</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Hillside Garage</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/carspex.garage</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ad_FLE_8676015_-</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Elleet UK Ltd</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>http://www.elleetuk.co.uk?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ad_FLE_5860323_-</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Northants Brickwork</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>http://bricklayernorthamptonshire.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ad_FLE_8993167_-</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Seamless Guttertech Ltd</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.seamlessguttertech.co.uk?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ad_FLE_8821543_-</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>The Property Doctor</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>http://www.thepropertydoctorrushden.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ad_FLE_8412241_-</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CB Building &amp; Maintenance Ltd</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ad_FLE_8536826_-</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>N K Autos Ltd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.nkautoscorby.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ad_FLE_9733031_-</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Automotive Fleet Support Ltd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.automotivefleetsupport.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ad_FLE_8926217_-</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Alex Little Panel &amp; Paint</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>http://www.alexlittlepanelandpaint.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ad_FLE_9283004_-</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>N Mayes Bespoke Building</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.nmayesbespokebuilding.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ad_FLE_901725185_-</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SDL Home Improvements</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/SDLHomeImprovements2020/?ref=page_internal</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ad_FLE_901712923_-</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>M.D.M Plastering Services</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>http://WWW.M-D-M-PLASTERING-SERVICES.UENIWEB.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ad_FLE_4472979_-</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R Swallow Builders</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.rswallowbuilders.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ad_FLE_6282024_-</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>JMC Autos</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>http://www.jmc-autos.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ad_FLE_901681104_-</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>C A Wilson Builders</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.cawilsonbuilders.com/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ad_FLE_8727132_-</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>S R Gill Builders Ltd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>http://www.srgillbuilders.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ad_FLE_1921024_-</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Eric W Parker &amp; Co Ltd - East Park Garage</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ad_FLE_2656109_-</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>A &amp; J Sectional Buildings Ltd</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://ajsectional.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ad_FLE_7488823_-</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>P S C Mobile Vehicle Repairs</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>http://www.psc-mvr.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ad_FLE_9483485_-</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Aspire Property Renovations Ltd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>http://aspirepropertyrenovationsltd.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ad_FLE_8238815_-</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Northampton Brickwork Ltd</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/northamptonbrickwork</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ad_FLE_8679961_-</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>S.J.M Building &amp; Fencing</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>http://bricklayersinnorthampton.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ad_FLE_7060549_-</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Under the Bonnet Ltd</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>http://www.underthebonnet.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ad_FLE_8277659_-</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>S &amp; T Motors</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ad_FLE_7552005_-</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Combined Motors Ltd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>http://www.combinedmotors.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ad_FLE_7177575_-</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>C Caygill Building Services</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>http://www.ccaygillbuildingservices.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ad_FLE_901475827_-</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Rigas</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>http://www.rigas-builders.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ad_FLE_6743736_-</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Aurora Leap</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>http://www.aleap.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ad_FLE_9103255_-</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>UK Door-Tech Ltd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>http://www.ukdoor-tech.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ad_FLE_8942381_-</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Prestige for your Home Ltd</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>http://prestigeforyourhome.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ad_FLE_10024550_-</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PB Garage</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://facebook.com/PBGarageLtd</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ad_FLE_7134060_-</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Kings Car Repairs</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>http://www.kings-car-repairs.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ad_FLE_4450364_-</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Autocentre Rushden Ltd</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>http://www.rushden-tyres.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ad_FLE_901715454_-</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Unit 16 Garage Ltd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>http://www.unit16garage.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ad_FLE_9483513_-</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>JB's Garage</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>http://www.jbsgarage.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ad_FLE_2404700_-</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Emmetts Garage Ltd</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>http://www.emmettsgarage.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ad_FLE_9061229_-</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Harea Construction Ltd</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://harea.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ad_FLE_4579042_-</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Motorvation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>http://motorvation-ltd.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ad_FLE_5112540_-</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>D Eales On Wheels Car Repairs</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>http://dealesonwheels.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ad_FLE_734717_-</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Basfords Garage</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>http://www.tanswell.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ad_FLE_3308635_-</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Blue Streak Automotives</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>http://www.bluestreakautomotive.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ad_FLE_8101579_-</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Nene Auto Repairs</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>http://neneautorepairs.weebly.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ad_FLE_6795353_-</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>T L R Autos</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>http://www.tlrautos.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ad_FLE_901672380_-</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>J&amp;V Car Express Ltd</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ad_FLE_5075758_-</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Chapford Small Build</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ad_FLE_901297004_-</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>JAB Tyre &amp; Exhaust Ltd</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>http://www.jabtyres.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ad_FLE_8955325_-</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Garolla</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.garolla.co.uk/local-installer/roller-garage-doors-northampton</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ad_FLE_8494126_-</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>The Vehicle Surgeon (TCW)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.thevehiclesurgeon.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ad_FLE_8602966_-</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>M &amp; A Cars</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>http://www.mandacars.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ad_FLE_9208091_-</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>IN'n'OUT Autocentres</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://inoautocentres.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ad_FLE_9094738_-</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AP Garage</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pages/category/automotive-repair-shop/ap-garage-2001105910167924</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ad_FLE_7578709_-</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>A &amp; S Auto Sparks</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>http://www.aandsautosparks.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ad_FLE_5864116_-</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>The Garage Door Centre Ltd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>http://www.thegaragedoorcentre.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ad_FLE_7263590_-</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>theguttercleaning.com</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>http://www.theguttercleaning.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ad_FLE_8585437_-</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Kejja Motorsport Ltd</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://kejjamotorsport.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ad_FLE_4736448_-</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Rushden M O T Centre Ltd</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>http://www.onestopautocentre.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ad_FLE_1425548_-</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>A B Autos</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>http://www.ab-autos.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ad_FLE_5552588_-</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>A A M O T Centre</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>http://www.aamotcentre.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ad_FLE_1595030_-</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Malc Pratt Motors</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ad_FLE_7806895_-</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>24HR Rapid Recovery Service</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ad_FLE_1510240_-</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Orbit</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>http://www.orbittyres.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ad_FLE_2188163_-</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Orbit Tyres</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>http://www.orbittyres.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ad_FLE_5820341_-</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>IN'n'OUT Autocentres</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>http://www.in-n-out.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ad_FLE_3761565_-</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Browns Vehicle Repair Centre</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>http://www.browns-garage.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ad_FLE_901176391_-</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Grafton Tyres &amp; Auto Repairs</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ad_FLE_9366258_-</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Kwik Nick Motors</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>http://www.kwik-nick.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ad_FLE_10054242_-</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Top Ceilings Ltd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>http://www.topceilings.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ad_FLE_8386746_-</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Other View Ltd</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>http://www.rollers24.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ad_FLE_9179964_-</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>IN'n'OUT Autocentres</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>http://www.inoautocentres.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ad_FLE_2315984_-</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>R G S Motorbikes Ltd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>http://www.rgs-motorbikes.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ad_FLE_3361663_-</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>P R Eppey Of Rushden</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>http://www.preppeybuilders.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ad_FLE_1588942_-</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ape Accessories</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>http://www.apeaccessories.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ad_FLE_5024557_-</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Auto Mobile Services</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>http://www.automobileserviceswellingborough.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ad_FLE_1492548_-</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Nicks Motors</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ad_FLE_901205964_-</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Combined Motors Ltd</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>http://www.combinedmotors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ad_FLE_8067649_-</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Todhunter Plastering Services</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>http://www.todhunterplastering.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ad_FLE_8348310_-</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Absolute Multi Trade</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ad_FLE_8412175_-</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>A G Hicks Building Services</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>http://www.aghicks.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ad_FLE_1580863_-</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Yardley Hastings Garage</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>http://www.yardleyhastingsgarage.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ad_FLE_901412812_-</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>DM Property Maintenance &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ad_FLE_8614524_-</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Corby Handyman Services</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>http://www.agjpropertyservices.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ad_FLE_1517901_-</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Horton Car Care</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>http://www.hortoncarcare.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ad_FLE_2579017_-</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>D &amp; D Automotive Ltd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ad_FLE_9895759_-</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>F.J.B Bros</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.fjb-northampton.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ad_FLE_901589371_-</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>John Derwent Building</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ad_FLE_9290795_-</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>TIB Construction Ltd</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>http://www.tibconstruction.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ad_FLE_9040047_-</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>OSS Homeworks</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.osshomeworks.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ad_FLE_9887286_-</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Aspect Property Solutions</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.aspectpropertysolutions.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ad_FLE_1579394_-</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Gells of Raunds Garage</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>http://www.gellsofraunds.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ad_FLE_1467841_-</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Central Garage Raunds Ltd</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>http://www.centralgarageraunds.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ad_FLE_8145279_-</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Murphys Motors</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>http://www.murphysmotors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ad_FLE_7158305_-</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>The Islip Garage</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>http://www.theislipgarage.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ad_FLE_1624794_-</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Coopers Garage</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.coopersgaragerothwell.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ad_FLE_4662530_-</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Parkham Garage</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>http://www.parkhamgarage.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ad_FLE_1519621_-</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Oakley Road Garage</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>http://www.storefield.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ad_FLE_2950047_-</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Welland Garage Ltd</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ad_FLE_7489015_-</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Estimates Garage Ltd</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/estimatesgarage</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ad_FLE_7530352_-</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Service M O T Repairs</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>http://www.service-mot-repairs.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ad_FLE_8679671_-</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Auto Solutions Northampton</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.autosolutions-northampton.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ad_FLE_7506987_-</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Archway Construction</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>http://www.archwayconstruction.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ad_FLE_6222847_-</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>IN Sheds</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>http://www.insheds.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ad_FLE_1703385_-</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Fastline</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>http://www.fastlinegroup.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ad_FLE_7809006_-</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Brunel Motors</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>http://www.brunelmotors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ad_FLE_2776690_-</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Andy Blake Alfa Romeo Specialists</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ad_FLE_1856793_-</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Crystal Motor Co</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>http://www.crystalmotorcompany.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ad_FLE_1490864_-</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Maple Leaf Garage</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>http://subaru.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ad_FLE_901448420_-</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Smashgard Window Films Ltd</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ad_FLE_8378295_-</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Evolution M O T Centre</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>http://www.evolutionmot.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ad_FLE_7049445_-</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>The Sohal Repairs Ltd</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/le.beaubeauty1</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ad_FLE_7542021_-</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>GB Rally Prep</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>http://www.gbrallyprep.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ad_FLE_9758134_-</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>M W Vehicle Solutions</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>http://www.mwvehiclesolutions.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ad_FLE_6736575_-</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CD Property Maintenance</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>http://www.c-d-propertymaintenance.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ad_FLE_2593224_-</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Excel Body Repairs</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>http://www.excelbodyrepairs.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ad_FLE_5721207_-</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>A J Automobiles</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ad_FLE_7403232_-</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Brookside Tyre &amp; Repair</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ad_FLE_7378666_-</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Goodwill Motors Ltd</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>http://www.goodwillmotors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ad_FLE_5557520_-</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Northants Mobile Tyres</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>http://www.northantsmobiletyres.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ad_FLE_6868956_-</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Crick Auto Services Ltd</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>http://www.crickautos.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ad_FLE_1503754_-</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Park Road Motors</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>http://www.motrushden.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ad_FLE_8489257_-</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>L.S Betts Plastering Services</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/l.sbettsplasteringservices</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ad_FLE_9143265_-</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Plastered Ltd</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>http://www.plasteredlimited.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ad_FLE_9816727_-</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>inspire design and build</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>http://inspiredb.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ad_FLE_2396777_-</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Barry Purkiss Garage Doors</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>http://www.barrypurkiss-garagedoors.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ad_FLE_8175608_-</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Sound Furlong Services</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ad_FLE_7505758_-</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>R M Jones Builder</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>http://www.rmjonesbuilder.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ad_FLE_7674858_-</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Abacus Builders</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ad_FLE_8747755_-</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Level Best Ltd</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>http://www.levelbestltd.co.uk?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ad_FLE_1390473_-</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Seckington &amp; Whitehead 2008 Ltd</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>http://www.seckingtonandwhitehead.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ad_FLE_3609079_-</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Jab Tyre &amp; Exhaust Ltd</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>http://www.jabtyres.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ad_FLE_1548493_-</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Clarke Brothers</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/superdrug</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ad_FLE_1427605_-</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Vehicle Repair Centre</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>http://www.vehiclerepaircentre.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ad_FLE_7773008_-</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>A C Autos</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ad_FLE_7128692_-</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>P J Hodge &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>http://www.pjhodge.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ad_FLE_2464731_-</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Higham Auto Services</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ad_FLE_1616715_-</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>B &amp; M T Cockerill</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ad_FLE_1456539_-</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Ned Davis Motors</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ned-davis-motors-151264558240241</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ad_FLE_7488953_-</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Sheltune Service Centre</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>http://www.sheltune.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ad_FLE_8903248_-</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>S &amp; S Autos</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ad_FLE_3119926_-</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Corporate Service Solutions</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>http://www.corporateservicesolutions.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ad_FLE_1480309_-</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Phils Autos Ltd</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ad_FLE_9579269_-</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Diamond Gutter Vac Services</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>http://www.diamondvehicleservices.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ad_FLE_2346440_-</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>M J Auto Services</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ad_FLE_4525063_-</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>T C J Services</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>http://www.tcjservices.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ad_FLE_901615031_-</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Amalgamated Tyres</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ad_FLE_8442762_-</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Autoworx</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ad_FLE_1432974_-</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Simon Tuckley Motor Engineers</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>http://www.simontmotore.webs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ad_FLE_736399_-</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>P.J Green Ltd</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ad_FLE_10008122_-</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Mike's Auto Repairs</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/goldhouselaundry/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ad_FLE_10254349_-</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Right on Construction</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.rightonconstruction.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ad_FLE_8405417_-</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Auto Mobile Diagnostics</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ad_FLE_7868722_-</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MJO Vehicle Services</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mjovehicleservices</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ad_FLE_901511750_-</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>The Local Building Company Ltd.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://thelocalbuildingcompany.com/services/garage-conversions/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ad_FLE_7633139_-</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>A &amp; S Automotive</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>http://www.aandsautomotive.moonfruit.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ad_FLE_9837596_-</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Roller Shutter Garage Doors</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://rsgd.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ad_FLE_5044789_-</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>J D Garage</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>http://www.jdgarage.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ad_FLE_2044089_-</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>D &amp; S Turner Ltd</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ad_FLE_7337704_-</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>R M Motors</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>http://www.batleymotstation.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ad_FLE_4226294_-</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Citroen, Peugeot, Renault Specialists</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>http://www.auto-diag.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ad_FLE_6882783_-</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Signature Transmissions Ltd</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>http://www.sigtrans.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ad_FLE_9893693_-</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Garage Door Installations</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>http://www.reflectionsgaragedoors.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ad_FLE_901234258_-</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Combined Motors Ltd</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ad_FLE_3334444_-</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Warner Mechanical Services</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/pages/category/automotive-repair-shop/d-warner-mechanical-services-424585927581589/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ad_FLE_1424040_-</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Ravensthorpe Service Station</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ad_FLE_1518608_-</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Earls Barton Auto Service</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>http://www.carrepairsnorthampton.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ad_FLE_3939779_-</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>A E Rescue</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>http://www.aesrescue.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ad_FLE_7624425_-</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Vince's MOT Ltd</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ad_FLE_8161539_-</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Rio's Property Maintenance &amp; Building Services</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ad_FLE_8190112_-</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Wrightbuild Property Maintenance &amp; Refurb Specialist</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ad_FLE_8860598_-</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Alternative Roof Solutions</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www.alternativeroofsolutions.co.uk/windows-and-doors/</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ad_FLE_8312681_-</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Central Autopoint</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>http://www.motcorby.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ad_FLE_5875583_-</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Auto Garage Equipment Ltd</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://www.autogarageequipment.co.uk/?utm_source=yell&amp;utm_medium=referral&amp;utm_campaign=yell</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ad_FLE_3641760_-</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Access Services</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>http://www.accessservicesltd.co.uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ad_FLE_10084257_-</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Chryslar Garage</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
